--- a/SanFrancisco_Daily_Crime2020.xlsx
+++ b/SanFrancisco_Daily_Crime2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owner/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owner/Desktop/git/Project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91256C5F-A0C1-5F4E-9BE2-5A73719422C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7619DD27-F225-9943-9453-2BE16B7EA897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="920" windowWidth="27640" windowHeight="16120" xr2:uid="{E7E85BDF-BF3A-F546-A627-B1CC94F67463}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Violent Daily % Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City </t>
+  </si>
+  <si>
+    <t>San Francisco</t>
   </si>
 </sst>
 </file>
@@ -416,2845 +422,3215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C519DA-7521-A946-840F-18D77F653A7A}">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="A2" sqref="A2:A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
         <v>43891</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>212</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>28</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
         <v>43892</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>204</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>-3.7735849056603772E-2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>38</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
         <v>43893</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>226</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>22</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>0.10784313725490197</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>28</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-10</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>-0.26315789473684209</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
         <v>43894</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>218</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-8</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>-3.5398230088495575E-2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>21</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-7</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
         <v>43895</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>182</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-36</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>-0.16513761467889909</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>33</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>12</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
         <v>43896</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>225</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>43</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>0.23626373626373626</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
         <v>43897</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>185</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-40</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>-0.17777777777777778</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>30</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-3</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>-9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
         <v>43898</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>191</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>3.2432432432432434E-2</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>24</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-6</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
         <v>43899</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>246</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>55</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>0.2879581151832461</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>38</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>14</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
         <v>43900</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>198</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-48</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>-0.1951219512195122</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>31</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-7</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>-0.18421052631578946</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
         <v>43901</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>260</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>62</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>0.31313131313131315</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>22</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-9</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>-0.29032258064516131</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
         <v>43902</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>209</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-51</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>-0.19615384615384615</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>28</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
         <v>43903</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>195</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-14</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>-6.6985645933014357E-2</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>27</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-1</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>-3.5714285714285712E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
         <v>43904</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>174</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-21</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>-0.1076923076923077</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>31</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>4</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
         <v>43905</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>176</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>1.1494252873563218E-2</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>24</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-7</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>-0.22580645161290322</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
         <v>43906</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>189</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>13</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>7.3863636363636367E-2</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>24</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
         <v>43907</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>158</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-31</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>-0.16402116402116401</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>13</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-11</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>-0.45833333333333331</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
         <v>43908</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>148</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-10</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>-6.3291139240506333E-2</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>27</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>14</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>1.0769230769230769</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2">
         <v>43909</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>133</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-15</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>-0.10135135135135136</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>22</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-5</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>-0.18518518518518517</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
         <v>43910</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>210</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>77</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>0.57894736842105265</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>19</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-3</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>-0.13636363636363635</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2">
         <v>43911</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>146</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-64</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>-0.30476190476190479</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>21</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>2</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>0.10526315789473684</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2">
         <v>43912</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>134</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-12</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>-8.2191780821917804E-2</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>21</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2">
         <v>43913</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>147</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>13</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>9.7014925373134331E-2</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>24</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>3</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2">
         <v>43914</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>137</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-10</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>-6.8027210884353748E-2</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>12</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-12</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2">
         <v>43915</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>167</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>30</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>0.21897810218978103</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>23</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>11</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2">
         <v>43916</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>139</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-28</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>-0.16766467065868262</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>15</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-8</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>-0.34782608695652173</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2">
         <v>43917</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>132</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-7</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>-5.0359712230215826E-2</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>15</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2">
         <v>43918</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>131</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-1</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>-7.575757575757576E-3</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>21</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>6</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2">
         <v>43919</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>116</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-15</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>-0.11450381679389313</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>16</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-5</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>-0.23809523809523808</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2">
         <v>43920</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>132</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>16</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>0.13793103448275862</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>18</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>0.125</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
         <v>43921</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>140</v>
       </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1">
         <v>6.0606060606060608E-2</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>15</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-3</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>-0.16666666666666666</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2">
         <v>43922</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>169</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>29</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>0.20714285714285716</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>17</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>2</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2">
         <v>43923</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>144</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-25</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>-0.14792899408284024</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>27</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>10</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>0.58823529411764708</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2">
         <v>43924</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>150</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>6</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>15</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-12</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>-0.44444444444444442</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2">
         <v>43925</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>130</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>-20</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
         <v>-0.13333333333333333</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>17</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>2</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2">
         <v>43926</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>136</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>6</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="1">
         <v>4.6153846153846156E-2</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>13</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>-4</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>-0.23529411764705882</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2">
         <v>43927</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>138</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>2</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>19</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>6</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2">
         <v>43928</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>185</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>47</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>0.34057971014492755</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>15</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>-4</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>-0.21052631578947367</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2">
         <v>43929</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>157</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>-28</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
         <v>-0.15135135135135136</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>25</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>10</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2">
         <v>43930</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>152</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>-5</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="1">
         <v>-3.1847133757961783E-2</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>18</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>-7</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2">
         <v>43931</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>164</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>12</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
         <v>7.8947368421052627E-2</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>21</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>3</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2">
         <v>43932</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>182</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>18</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E43" s="1">
         <v>0.10975609756097561</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>26</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>5</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>0.23809523809523808</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2">
         <v>43933</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>179</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>-3</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="1">
         <v>-1.6483516483516484E-2</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>21</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>-5</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>-0.19230769230769232</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2">
         <v>43934</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>187</v>
       </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1">
         <v>4.4692737430167599E-2</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>15</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>-6</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>-0.2857142857142857</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="2">
         <v>43935</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>196</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>9</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="1">
         <v>4.8128342245989303E-2</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>25</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>10</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="2">
         <v>43936</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>196</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>0</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="1">
         <v>0</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>27</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>2</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <v>0.08</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="2">
         <v>43937</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>150</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>-46</v>
       </c>
-      <c r="D48" s="1">
+      <c r="E48" s="1">
         <v>-0.23469387755102042</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>24</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>-3</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <v>-0.1111111111111111</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="2">
         <v>43938</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>150</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0</v>
       </c>
-      <c r="D49" s="1">
+      <c r="E49" s="1">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>15</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>-9</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>-0.375</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2">
         <v>43939</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>152</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>2</v>
       </c>
-      <c r="D50" s="1">
+      <c r="E50" s="1">
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>12</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>-3</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="2">
         <v>43940</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>166</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>14</v>
       </c>
-      <c r="D51" s="1">
+      <c r="E51" s="1">
         <v>9.2105263157894732E-2</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>27</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>15</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <v>1.25</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="2">
         <v>43941</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>210</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>44</v>
       </c>
-      <c r="D52" s="1">
+      <c r="E52" s="1">
         <v>0.26506024096385544</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>28</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>1</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="2">
         <v>43942</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>136</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>-74</v>
       </c>
-      <c r="D53" s="1">
+      <c r="E53" s="1">
         <v>-0.35238095238095241</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>14</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>-14</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2">
         <v>43943</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>166</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>30</v>
       </c>
-      <c r="D54" s="1">
+      <c r="E54" s="1">
         <v>0.22058823529411764</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>17</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>3</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <v>0.21428571428571427</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="2">
         <v>43944</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>159</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>-7</v>
       </c>
-      <c r="D55" s="1">
+      <c r="E55" s="1">
         <v>-4.2168674698795178E-2</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>20</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>3</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>0.17647058823529413</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="2">
         <v>43945</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>177</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>18</v>
       </c>
-      <c r="D56" s="1">
+      <c r="E56" s="1">
         <v>0.11320754716981132</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>32</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>12</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="2">
         <v>43946</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>136</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>-41</v>
       </c>
-      <c r="D57" s="1">
+      <c r="E57" s="1">
         <v>-0.23163841807909605</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>23</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>-9</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>-0.28125</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2">
         <v>43947</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>191</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>55</v>
       </c>
-      <c r="D58" s="1">
+      <c r="E58" s="1">
         <v>0.40441176470588236</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>17</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>-6</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <v>-0.2608695652173913</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="2">
         <v>43948</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>159</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>-32</v>
       </c>
-      <c r="D59" s="1">
+      <c r="E59" s="1">
         <v>-0.16753926701570682</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>25</v>
       </c>
-      <c r="F59">
-        <v>8</v>
-      </c>
-      <c r="G59" s="1">
+      <c r="G59">
+        <v>8</v>
+      </c>
+      <c r="H59" s="1">
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="2">
         <v>43949</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>177</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>18</v>
       </c>
-      <c r="D60" s="1">
+      <c r="E60" s="1">
         <v>0.11320754716981132</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>13</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>-12</v>
       </c>
-      <c r="G60" s="1">
+      <c r="H60" s="1">
         <v>-0.48</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="2">
         <v>43950</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>174</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>-3</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E61" s="1">
         <v>-1.6949152542372881E-2</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>21</v>
       </c>
-      <c r="F61">
-        <v>8</v>
-      </c>
-      <c r="G61" s="1">
+      <c r="G61">
+        <v>8</v>
+      </c>
+      <c r="H61" s="1">
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="2">
         <v>43951</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>152</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>-22</v>
       </c>
-      <c r="D62" s="1">
+      <c r="E62" s="1">
         <v>-0.12643678160919541</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>24</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>3</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H62" s="1">
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="2">
         <v>43952</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>180</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>28</v>
       </c>
-      <c r="D63" s="1">
+      <c r="E63" s="1">
         <v>0.18421052631578946</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>21</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>-3</v>
       </c>
-      <c r="G63" s="1">
+      <c r="H63" s="1">
         <v>-0.125</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="2">
         <v>43953</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>178</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>-2</v>
       </c>
-      <c r="D64" s="1">
+      <c r="E64" s="1">
         <v>-1.1111111111111112E-2</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>12</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>-9</v>
       </c>
-      <c r="G64" s="1">
+      <c r="H64" s="1">
         <v>-0.42857142857142855</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="2">
         <v>43954</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>157</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>-21</v>
       </c>
-      <c r="D65" s="1">
+      <c r="E65" s="1">
         <v>-0.11797752808988764</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>19</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>7</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H65" s="1">
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="2">
         <v>43955</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>198</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>41</v>
       </c>
-      <c r="D66" s="1">
+      <c r="E66" s="1">
         <v>0.26114649681528662</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>30</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>11</v>
       </c>
-      <c r="G66" s="1">
+      <c r="H66" s="1">
         <v>0.57894736842105265</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="2">
         <v>43956</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>209</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>11</v>
       </c>
-      <c r="D67" s="1">
+      <c r="E67" s="1">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>31</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>1</v>
       </c>
-      <c r="G67" s="1">
+      <c r="H67" s="1">
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="2">
         <v>43957</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>160</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>-49</v>
       </c>
-      <c r="D68" s="1">
+      <c r="E68" s="1">
         <v>-0.23444976076555024</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>23</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>-8</v>
       </c>
-      <c r="G68" s="1">
+      <c r="H68" s="1">
         <v>-0.25806451612903225</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="2">
         <v>43958</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>179</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>19</v>
       </c>
-      <c r="D69" s="1">
+      <c r="E69" s="1">
         <v>0.11874999999999999</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>20</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>-3</v>
       </c>
-      <c r="G69" s="1">
+      <c r="H69" s="1">
         <v>-0.13043478260869565</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="2">
         <v>43959</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>185</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>6</v>
       </c>
-      <c r="D70" s="1">
+      <c r="E70" s="1">
         <v>3.3519553072625698E-2</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>23</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>3</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H70" s="1">
         <v>0.15</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="2">
         <v>43960</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>168</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>-17</v>
       </c>
-      <c r="D71" s="1">
+      <c r="E71" s="1">
         <v>-9.1891891891891897E-2</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>14</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>-9</v>
       </c>
-      <c r="G71" s="1">
+      <c r="H71" s="1">
         <v>-0.39130434782608697</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="2">
         <v>43961</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>174</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>6</v>
       </c>
-      <c r="D72" s="1">
+      <c r="E72" s="1">
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>11</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>-3</v>
       </c>
-      <c r="G72" s="1">
+      <c r="H72" s="1">
         <v>-0.21428571428571427</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="2">
         <v>43962</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>161</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>-13</v>
       </c>
-      <c r="D73" s="1">
+      <c r="E73" s="1">
         <v>-7.4712643678160925E-2</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>14</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>3</v>
       </c>
-      <c r="G73" s="1">
+      <c r="H73" s="1">
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="2">
         <v>43963</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>182</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>21</v>
       </c>
-      <c r="D74" s="1">
+      <c r="E74" s="1">
         <v>0.13043478260869565</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>18</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>4</v>
       </c>
-      <c r="G74" s="1">
+      <c r="H74" s="1">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="2">
         <v>43964</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>182</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>0</v>
       </c>
-      <c r="D75" s="1">
+      <c r="E75" s="1">
         <v>0</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>17</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>-1</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H75" s="1">
         <v>-5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="2">
         <v>43965</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>181</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>-1</v>
       </c>
-      <c r="D76" s="1">
+      <c r="E76" s="1">
         <v>-5.4945054945054949E-3</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>22</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>5</v>
       </c>
-      <c r="G76" s="1">
+      <c r="H76" s="1">
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="2">
         <v>43966</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>190</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>9</v>
       </c>
-      <c r="D77" s="1">
+      <c r="E77" s="1">
         <v>4.9723756906077346E-2</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>20</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>-2</v>
       </c>
-      <c r="G77" s="1">
+      <c r="H77" s="1">
         <v>-9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="2">
         <v>43967</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>189</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>-1</v>
       </c>
-      <c r="D78" s="1">
+      <c r="E78" s="1">
         <v>-5.263157894736842E-3</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>26</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>6</v>
       </c>
-      <c r="G78" s="1">
+      <c r="H78" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="2">
         <v>43968</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>189</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>0</v>
       </c>
-      <c r="D79" s="1">
+      <c r="E79" s="1">
         <v>0</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>11</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>-15</v>
       </c>
-      <c r="G79" s="1">
+      <c r="H79" s="1">
         <v>-0.57692307692307687</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="2">
         <v>43969</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>198</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>9</v>
       </c>
-      <c r="D80" s="1">
+      <c r="E80" s="1">
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>22</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>11</v>
       </c>
-      <c r="G80" s="1">
+      <c r="H80" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="2">
         <v>43970</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>203</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>5</v>
       </c>
-      <c r="D81" s="1">
+      <c r="E81" s="1">
         <v>2.5252525252525252E-2</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>33</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>11</v>
       </c>
-      <c r="G81" s="1">
+      <c r="H81" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="2">
         <v>43971</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>221</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>18</v>
       </c>
-      <c r="D82" s="1">
+      <c r="E82" s="1">
         <v>8.8669950738916259E-2</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>23</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>-10</v>
       </c>
-      <c r="G82" s="1">
+      <c r="H82" s="1">
         <v>-0.30303030303030304</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="2">
         <v>43972</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>215</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>-6</v>
       </c>
-      <c r="D83" s="1">
+      <c r="E83" s="1">
         <v>-2.7149321266968326E-2</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>30</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>7</v>
       </c>
-      <c r="G83" s="1">
+      <c r="H83" s="1">
         <v>0.30434782608695654</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="2">
         <v>43973</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>233</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>18</v>
       </c>
-      <c r="D84" s="1">
+      <c r="E84" s="1">
         <v>8.3720930232558138E-2</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>31</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>1</v>
       </c>
-      <c r="G84" s="1">
+      <c r="H84" s="1">
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="2">
         <v>43974</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>170</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>-63</v>
       </c>
-      <c r="D85" s="1">
+      <c r="E85" s="1">
         <v>-0.27038626609442062</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>28</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>-3</v>
       </c>
-      <c r="G85" s="1">
+      <c r="H85" s="1">
         <v>-9.6774193548387094E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="2">
         <v>43975</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>153</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>-17</v>
       </c>
-      <c r="D86" s="1">
+      <c r="E86" s="1">
         <v>-0.1</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>17</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>-11</v>
       </c>
-      <c r="G86" s="1">
+      <c r="H86" s="1">
         <v>-0.39285714285714285</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="2">
         <v>43976</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>179</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>26</v>
       </c>
-      <c r="D87" s="1">
+      <c r="E87" s="1">
         <v>0.16993464052287582</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>19</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>2</v>
       </c>
-      <c r="G87" s="1">
+      <c r="H87" s="1">
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="2">
         <v>43977</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>202</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>23</v>
       </c>
-      <c r="D88" s="1">
+      <c r="E88" s="1">
         <v>0.12849162011173185</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>30</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>11</v>
       </c>
-      <c r="G88" s="1">
+      <c r="H88" s="1">
         <v>0.57894736842105265</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="2">
         <v>43978</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>163</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>-39</v>
       </c>
-      <c r="D89" s="1">
+      <c r="E89" s="1">
         <v>-0.19306930693069307</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>18</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>-12</v>
       </c>
-      <c r="G89" s="1">
+      <c r="H89" s="1">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="2">
         <v>43979</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>185</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>22</v>
       </c>
-      <c r="D90" s="1">
+      <c r="E90" s="1">
         <v>0.13496932515337423</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>25</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>7</v>
       </c>
-      <c r="G90" s="1">
+      <c r="H90" s="1">
         <v>0.3888888888888889</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="2">
         <v>43980</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>188</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>3</v>
       </c>
-      <c r="D91" s="1">
+      <c r="E91" s="1">
         <v>1.6216216216216217E-2</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>26</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>1</v>
       </c>
-      <c r="G91" s="1">
+      <c r="H91" s="1">
         <v>0.04</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="2">
         <v>43981</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>295</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>107</v>
       </c>
-      <c r="D92" s="1">
+      <c r="E92" s="1">
         <v>0.56914893617021278</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>37</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>11</v>
       </c>
-      <c r="G92" s="1">
+      <c r="H92" s="1">
         <v>0.42307692307692307</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="2">
         <v>43982</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>296</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>1</v>
       </c>
-      <c r="D93" s="1">
+      <c r="E93" s="1">
         <v>3.3898305084745762E-3</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>28</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>-9</v>
       </c>
-      <c r="G93" s="1">
+      <c r="H93" s="1">
         <v>-0.24324324324324326</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="2">
         <v>43983</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>250</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>-46</v>
       </c>
-      <c r="D94" s="1">
+      <c r="E94" s="1">
         <v>-0.1554054054054054</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>28</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>0</v>
       </c>
-      <c r="G94" s="1">
+      <c r="H94" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="2">
         <v>43984</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>194</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>-56</v>
       </c>
-      <c r="D95" s="1">
+      <c r="E95" s="1">
         <v>-0.224</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>26</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>-2</v>
       </c>
-      <c r="G95" s="1">
+      <c r="H95" s="1">
         <v>-7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="2">
         <v>43985</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>226</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>32</v>
       </c>
-      <c r="D96" s="1">
+      <c r="E96" s="1">
         <v>0.16494845360824742</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>20</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>-6</v>
       </c>
-      <c r="G96" s="1">
+      <c r="H96" s="1">
         <v>-0.23076923076923078</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="2">
         <v>43986</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>186</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>-40</v>
       </c>
-      <c r="D97" s="1">
+      <c r="E97" s="1">
         <v>-0.17699115044247787</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>28</v>
       </c>
-      <c r="F97">
-        <v>8</v>
-      </c>
-      <c r="G97" s="1">
+      <c r="G97">
+        <v>8</v>
+      </c>
+      <c r="H97" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="2">
         <v>43987</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>192</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>6</v>
       </c>
-      <c r="D98" s="1">
+      <c r="E98" s="1">
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>20</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>-8</v>
       </c>
-      <c r="G98" s="1">
+      <c r="H98" s="1">
         <v>-0.2857142857142857</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="2">
         <v>43988</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>148</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>-44</v>
       </c>
-      <c r="D99" s="1">
+      <c r="E99" s="1">
         <v>-0.22916666666666666</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>18</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>-2</v>
       </c>
-      <c r="G99" s="1">
+      <c r="H99" s="1">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="2">
         <v>43989</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>177</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>29</v>
       </c>
-      <c r="D100" s="1">
+      <c r="E100" s="1">
         <v>0.19594594594594594</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>23</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>5</v>
       </c>
-      <c r="G100" s="1">
+      <c r="H100" s="1">
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="2">
         <v>43990</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>201</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>24</v>
       </c>
-      <c r="D101" s="1">
+      <c r="E101" s="1">
         <v>0.13559322033898305</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>16</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>-7</v>
       </c>
-      <c r="G101" s="1">
+      <c r="H101" s="1">
         <v>-0.30434782608695654</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="2">
         <v>43991</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>197</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>-4</v>
       </c>
-      <c r="D102" s="1">
+      <c r="E102" s="1">
         <v>-1.9900497512437811E-2</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>17</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>1</v>
       </c>
-      <c r="G102" s="1">
+      <c r="H102" s="1">
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="2">
         <v>43992</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>184</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>-13</v>
       </c>
-      <c r="D103" s="1">
+      <c r="E103" s="1">
         <v>-6.5989847715736044E-2</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>21</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>4</v>
       </c>
-      <c r="G103" s="1">
+      <c r="H103" s="1">
         <v>0.23529411764705882</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="2">
         <v>43993</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>175</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>-9</v>
       </c>
-      <c r="D104" s="1">
+      <c r="E104" s="1">
         <v>-4.8913043478260872E-2</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>16</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>-5</v>
       </c>
-      <c r="G104" s="1">
+      <c r="H104" s="1">
         <v>-0.23809523809523808</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="2">
         <v>43994</v>
       </c>
-      <c r="B105">
+      <c r="C105">
         <v>219</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>44</v>
       </c>
-      <c r="D105" s="1">
+      <c r="E105" s="1">
         <v>0.25142857142857145</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>22</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>6</v>
       </c>
-      <c r="G105" s="1">
+      <c r="H105" s="1">
         <v>0.375</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="2">
         <v>43995</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>145</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>-74</v>
       </c>
-      <c r="D106" s="1">
+      <c r="E106" s="1">
         <v>-0.33789954337899542</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>26</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>4</v>
       </c>
-      <c r="G106" s="1">
+      <c r="H106" s="1">
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="2">
         <v>43996</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>143</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>-2</v>
       </c>
-      <c r="D107" s="1">
+      <c r="E107" s="1">
         <v>-1.3793103448275862E-2</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>25</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>-1</v>
       </c>
-      <c r="G107" s="1">
+      <c r="H107" s="1">
         <v>-3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="2">
         <v>43997</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>198</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>55</v>
       </c>
-      <c r="D108" s="1">
+      <c r="E108" s="1">
         <v>0.38461538461538464</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>25</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>0</v>
       </c>
-      <c r="G108" s="1">
+      <c r="H108" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="2">
         <v>43998</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>188</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>-10</v>
       </c>
-      <c r="D109" s="1">
+      <c r="E109" s="1">
         <v>-5.0505050505050504E-2</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>28</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>3</v>
       </c>
-      <c r="G109" s="1">
+      <c r="H109" s="1">
         <v>0.12</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="2">
         <v>43999</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>211</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>23</v>
       </c>
-      <c r="D110" s="1">
+      <c r="E110" s="1">
         <v>0.12234042553191489</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>20</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>-8</v>
       </c>
-      <c r="G110" s="1">
+      <c r="H110" s="1">
         <v>-0.2857142857142857</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="2">
         <v>44000</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>180</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>-31</v>
       </c>
-      <c r="D111" s="1">
+      <c r="E111" s="1">
         <v>-0.14691943127962084</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>21</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>1</v>
       </c>
-      <c r="G111" s="1">
+      <c r="H111" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="2">
         <v>44001</v>
       </c>
-      <c r="B112">
+      <c r="C112">
         <v>214</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>34</v>
       </c>
-      <c r="D112" s="1">
+      <c r="E112" s="1">
         <v>0.18888888888888888</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>34</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>13</v>
       </c>
-      <c r="G112" s="1">
+      <c r="H112" s="1">
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="2">
         <v>44002</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>164</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>-50</v>
       </c>
-      <c r="D113" s="1">
+      <c r="E113" s="1">
         <v>-0.23364485981308411</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>14</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>-20</v>
       </c>
-      <c r="G113" s="1">
+      <c r="H113" s="1">
         <v>-0.58823529411764708</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="2">
         <v>44003</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>121</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>-43</v>
       </c>
-      <c r="D114" s="1">
+      <c r="E114" s="1">
         <v>-0.26219512195121952</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>15</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>1</v>
       </c>
-      <c r="G114" s="1">
+      <c r="H114" s="1">
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="2">
         <v>44004</v>
       </c>
-      <c r="B115">
+      <c r="C115">
         <v>166</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>45</v>
       </c>
-      <c r="D115" s="1">
+      <c r="E115" s="1">
         <v>0.37190082644628097</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>31</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>16</v>
       </c>
-      <c r="G115" s="1">
+      <c r="H115" s="1">
         <v>1.0666666666666667</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="2">
         <v>44005</v>
       </c>
-      <c r="B116">
+      <c r="C116">
         <v>164</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>-2</v>
       </c>
-      <c r="D116" s="1">
+      <c r="E116" s="1">
         <v>-1.2048192771084338E-2</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>22</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>-9</v>
       </c>
-      <c r="G116" s="1">
+      <c r="H116" s="1">
         <v>-0.29032258064516131</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="2">
         <v>44006</v>
       </c>
-      <c r="B117">
+      <c r="C117">
         <v>198</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>34</v>
       </c>
-      <c r="D117" s="1">
+      <c r="E117" s="1">
         <v>0.2073170731707317</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>30</v>
       </c>
-      <c r="F117">
-        <v>8</v>
-      </c>
-      <c r="G117" s="1">
+      <c r="G117">
+        <v>8</v>
+      </c>
+      <c r="H117" s="1">
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="2">
         <v>44007</v>
       </c>
-      <c r="B118">
+      <c r="C118">
         <v>172</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>-26</v>
       </c>
-      <c r="D118" s="1">
+      <c r="E118" s="1">
         <v>-0.13131313131313133</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>26</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>-4</v>
       </c>
-      <c r="G118" s="1">
+      <c r="H118" s="1">
         <v>-0.13333333333333333</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="2">
         <v>44008</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>162</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>-10</v>
       </c>
-      <c r="D119" s="1">
+      <c r="E119" s="1">
         <v>-5.8139534883720929E-2</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>27</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>1</v>
       </c>
-      <c r="G119" s="1">
+      <c r="H119" s="1">
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="2">
         <v>44009</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>197</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>35</v>
       </c>
-      <c r="D120" s="1">
+      <c r="E120" s="1">
         <v>0.21604938271604937</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>21</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>-6</v>
       </c>
-      <c r="G120" s="1">
+      <c r="H120" s="1">
         <v>-0.22222222222222221</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="2">
         <v>44010</v>
       </c>
-      <c r="B121">
+      <c r="C121">
         <v>178</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>-19</v>
       </c>
-      <c r="D121" s="1">
+      <c r="E121" s="1">
         <v>-9.6446700507614211E-2</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>18</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>-3</v>
       </c>
-      <c r="G121" s="1">
+      <c r="H121" s="1">
         <v>-0.14285714285714285</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="2">
         <v>44011</v>
       </c>
-      <c r="B122">
+      <c r="C122">
         <v>187</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>9</v>
       </c>
-      <c r="D122" s="1">
+      <c r="E122" s="1">
         <v>5.0561797752808987E-2</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>29</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>11</v>
       </c>
-      <c r="G122" s="1">
+      <c r="H122" s="1">
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="2">
         <v>44012</v>
       </c>
-      <c r="B123">
+      <c r="C123">
         <v>216</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>29</v>
       </c>
-      <c r="D123" s="1">
+      <c r="E123" s="1">
         <v>0.15508021390374332</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>30</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>1</v>
       </c>
-      <c r="G123" s="1">
+      <c r="H123" s="1">
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
